--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_08-02.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_08-02.xlsx
@@ -1308,7 +1308,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"] "Reunion will perish after all this is over.” 
+    <t xml:space="preserve">[name="Kal'tsit"] 'Reunion will perish after all this is over.' 
 </t>
   </si>
   <si>
@@ -1808,7 +1808,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">“Unsheathing strike, eradicate without delay.” 
+    <t xml:space="preserve">'Unsheathing strike, eradicate without delay.' 
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_08-02.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_08-02.xlsx
@@ -1648,7 +1648,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  No, I won’t.
+    <t xml:space="preserve">[name="Wei Yenwu"]  No, I won't.
 </t>
   </si>
   <si>
@@ -1732,7 +1732,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Wei Yenwu gazes towards the sky. He considers bending down to comfort the tiny girl, but after hesitating, feels as if he isn’t suited to the task.
+    <t xml:space="preserve">Wei Yenwu gazes towards the sky. He considers bending down to comfort the tiny girl, but after hesitating, feels as if he isn't suited to the task.
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_08-02.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_08-02.xlsx
@@ -2176,7 +2176,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="웨이 옌우"]  ……모든 게 놈의 계획대로군. 협약 체결 구역의 보안 상황을 확인하기 위해 라이타니아는 우리의 봉쇄 구역과 겹치게 충돌 금지 구역을 확장한 거다.
+    <t xml:space="preserve">[name="웨이 옌우"]  ……모든 게 놈의 계획대로군. 협약 체결 구역의 보안 상황을 확인하기 위해 라이타니엔은 우리의 봉쇄 구역과 겹치게 충돌 금지 구역을 확장한 거다.
 </t>
   </si>
   <si>
